--- a/TestStuff/DyeSpectra.xlsx
+++ b/TestStuff/DyeSpectra.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hohlbein/Documents/GitHub/sptPALM-Python/TestStuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A504B-50B9-8F4A-82D5-A03BF950372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2555B049-DEDE-C94E-9FF5-9D402E445275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47680" yWindow="3180" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{D9C54F0B-614D-DE4D-A385-442CE42D0B95}"/>
+    <workbookView xWindow="-47680" yWindow="3180" windowWidth="28040" windowHeight="17440" xr2:uid="{D9C54F0B-614D-DE4D-A385-442CE42D0B95}"/>
   </bookViews>
   <sheets>
     <sheet name="Cy3B_Ab" sheetId="1" r:id="rId1"/>
     <sheet name="Cy3B_Em" sheetId="2" r:id="rId2"/>
     <sheet name="ATTO647N_Ab" sheetId="3" r:id="rId3"/>
     <sheet name="ATTO647N_Em" sheetId="4" r:id="rId4"/>
+    <sheet name="Alexa647_EM" sheetId="5" r:id="rId5"/>
+    <sheet name="CF660C_EM" sheetId="6" r:id="rId6"/>
+    <sheet name="CF680_EM" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
   <si>
     <t xml:space="preserve">Wavelength (nm) </t>
   </si>
@@ -51,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,6 +68,18 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,10 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B052F4B8-BEAE-9142-ABDC-DF59F9C03CF9}">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2776,7 +2794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E35EE2-2767-A448-A0D9-373CEA98F48B}">
   <dimension ref="A1:B472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+    <sheetView topLeftCell="A231" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B472"/>
     </sheetView>
   </sheetViews>
@@ -6570,8 +6588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58FC71E-3C35-0E43-8EBF-4739E32A6B0E}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7548,4 +7566,5036 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B3A579-AF34-8946-A20D-8548C5F672B5}">
+  <dimension ref="A1:B212"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>618</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>619</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>620</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>621</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>622</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>623</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>624</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>625</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>626</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>627</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>628</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>629</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>630</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>631</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>632</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>633</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3.1399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>634</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>635</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>636</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>637</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.8099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>638</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>639</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7.8100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>640</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8.9399999999999993E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>641</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>642</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.1203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>643</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.13719999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>644</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.1573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>645</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.17860000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>646</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>647</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.22739999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>648</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.25509999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>649</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.28420000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>650</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.3165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>651</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>652</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>653</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.42920000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>654</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.4642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>655</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.51329999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>656</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.55249999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>657</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.59789999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>658</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.64410000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>659</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.68130000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>660</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.72589999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>661</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>662</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.80549999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>663</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.84770000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>664</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.88560000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>665</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.90749999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>666</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>667</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.95069999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>668</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.9738</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>669</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.98409999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>670</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>671</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>672</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.99280000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>673</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.98270000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>674</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.96879999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>675</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.95220000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>676</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>677</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.90569999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>678</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.88439999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>679</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.86150000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>680</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.83389999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>681</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.80420000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>682</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.77090000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>683</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.74750000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>684</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.70920000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>685</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>686</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.65669999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>687</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.61990000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>688</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>689</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.57169999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>690</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.53720000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>691</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.50949999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>692</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.48870000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>693</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.4652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>694</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.4451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>695</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0.42670000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>696</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.40639999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>697</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.38990000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>698</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.37309999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>699</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0.35639999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>700</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.34060000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>701</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.33029999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>702</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>703</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.30640000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>704</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.29730000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>705</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.28449999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>706</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.27489999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>707</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.26929999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>708</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>709</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.25280000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>710</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0.24940000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>711</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.24460000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>712</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0.24179999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>713</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.2364</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>714</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0.23549999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>715</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.23269999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>716</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.23089999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>717</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.22739999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>718</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>719</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.2223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>720</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.2213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>721</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.2205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>722</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.21759999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>723</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.21809999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>724</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>725</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0.21429999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>726</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0.2097</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>727</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0.2084</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>728</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.2077</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>729</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.2036</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>730</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0.20030000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>731</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0.1981</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>732</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0.1973</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>733</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>734</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0.18970000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>735</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.18609999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>736</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0.1825</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>737</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.1789</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>738</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>739</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.1726</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>740</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0.16819999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>741</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0.1636</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>742</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0.15909999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>743</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0.15390000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>744</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0.15040000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>745</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0.14710000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>746</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>747</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0.1384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>748</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0.13370000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>749</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.12989999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>750</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0.12590000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>751</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>752</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0.1144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>753</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>754</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0.1081</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>755</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0.10390000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>756</v>
+      </c>
+      <c r="B140" s="4">
+        <v>9.8699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>757</v>
+      </c>
+      <c r="B141" s="4">
+        <v>9.4200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>758</v>
+      </c>
+      <c r="B142" s="4">
+        <v>8.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>759</v>
+      </c>
+      <c r="B143" s="4">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>760</v>
+      </c>
+      <c r="B144" s="4">
+        <v>8.0500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>761</v>
+      </c>
+      <c r="B145" s="4">
+        <v>7.8200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>762</v>
+      </c>
+      <c r="B146" s="4">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>763</v>
+      </c>
+      <c r="B147" s="4">
+        <v>7.2300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>764</v>
+      </c>
+      <c r="B148" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>765</v>
+      </c>
+      <c r="B149" s="4">
+        <v>6.6600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>766</v>
+      </c>
+      <c r="B150" s="4">
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>767</v>
+      </c>
+      <c r="B151" s="4">
+        <v>6.3100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>768</v>
+      </c>
+      <c r="B152" s="4">
+        <v>6.1100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>769</v>
+      </c>
+      <c r="B153" s="4">
+        <v>5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>770</v>
+      </c>
+      <c r="B154" s="4">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>771</v>
+      </c>
+      <c r="B155" s="4">
+        <v>5.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>772</v>
+      </c>
+      <c r="B156" s="4">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>773</v>
+      </c>
+      <c r="B157" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>774</v>
+      </c>
+      <c r="B158" s="4">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>775</v>
+      </c>
+      <c r="B159" s="4">
+        <v>4.99E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>776</v>
+      </c>
+      <c r="B160" s="4">
+        <v>4.7199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>777</v>
+      </c>
+      <c r="B161" s="4">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>778</v>
+      </c>
+      <c r="B162" s="4">
+        <v>4.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>779</v>
+      </c>
+      <c r="B163" s="4">
+        <v>4.3299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>780</v>
+      </c>
+      <c r="B164" s="4">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>781</v>
+      </c>
+      <c r="B165" s="4">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>782</v>
+      </c>
+      <c r="B166" s="4">
+        <v>3.95E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>783</v>
+      </c>
+      <c r="B167" s="4">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>784</v>
+      </c>
+      <c r="B168" s="4">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>785</v>
+      </c>
+      <c r="B169" s="4">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>786</v>
+      </c>
+      <c r="B170" s="4">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>787</v>
+      </c>
+      <c r="B171" s="4">
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>788</v>
+      </c>
+      <c r="B172" s="4">
+        <v>3.4099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>789</v>
+      </c>
+      <c r="B173" s="4">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>790</v>
+      </c>
+      <c r="B174" s="4">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>791</v>
+      </c>
+      <c r="B175" s="4">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>792</v>
+      </c>
+      <c r="B176" s="4">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>793</v>
+      </c>
+      <c r="B177" s="4">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>794</v>
+      </c>
+      <c r="B178" s="4">
+        <v>2.93E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>795</v>
+      </c>
+      <c r="B179" s="4">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>796</v>
+      </c>
+      <c r="B180" s="4">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>797</v>
+      </c>
+      <c r="B181" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>798</v>
+      </c>
+      <c r="B182" s="4">
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>799</v>
+      </c>
+      <c r="B183" s="4">
+        <v>2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>800</v>
+      </c>
+      <c r="B184" s="4">
+        <v>2.5700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>801</v>
+      </c>
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>802</v>
+      </c>
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>803</v>
+      </c>
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>804</v>
+      </c>
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>805</v>
+      </c>
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>806</v>
+      </c>
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>807</v>
+      </c>
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>808</v>
+      </c>
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>809</v>
+      </c>
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>810</v>
+      </c>
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>811</v>
+      </c>
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>812</v>
+      </c>
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>813</v>
+      </c>
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>814</v>
+      </c>
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>815</v>
+      </c>
+      <c r="B199" s="3"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>816</v>
+      </c>
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>817</v>
+      </c>
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>818</v>
+      </c>
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>819</v>
+      </c>
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>820</v>
+      </c>
+      <c r="B204" s="3"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>821</v>
+      </c>
+      <c r="B205" s="3"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>822</v>
+      </c>
+      <c r="B206" s="3"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>823</v>
+      </c>
+      <c r="B207" s="3"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>824</v>
+      </c>
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>825</v>
+      </c>
+      <c r="B209" s="3"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>826</v>
+      </c>
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>827</v>
+      </c>
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>828</v>
+      </c>
+      <c r="B212" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF6C48C-8E54-DB4B-8A38-6CA77722CC01}">
+  <dimension ref="A1:B212"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>618</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>619</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>620</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>621</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>622</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>623</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>624</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>625</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>626</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>627</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>628</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>629</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>630</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>631</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>632</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>633</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>634</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>635</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>636</v>
+      </c>
+      <c r="B20" s="4">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>637</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>638</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>639</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>640</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>641</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>642</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>643</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>644</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2.41E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>645</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>646</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>647</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>648</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>649</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.0500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>650</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>651</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.7900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>652</v>
+      </c>
+      <c r="B36" s="4">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>653</v>
+      </c>
+      <c r="B37" s="4">
+        <v>8.8800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>654</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>655</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>656</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.1326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>657</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>658</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>659</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.19159999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>660</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.21390000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>661</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.2374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>662</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.26529999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>663</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.30070000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>664</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>665</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.37430000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>666</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.41120000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>667</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.45190000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>668</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.49359999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>669</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.53469999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>670</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.57909999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>671</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.62239999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>672</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.66379999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>673</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.70820000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>674</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.74929999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>675</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.79169999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>676</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.82779999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>677</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.86370000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>678</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>679</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.9244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>680</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.94650000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>681</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.96740000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>682</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.98240000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>683</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.99509999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>684</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>685</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>686</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.99360000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>687</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.98350000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>688</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.9728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>689</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.95679999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>690</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.93430000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>691</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.90920000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>692</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.88439999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>693</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.8548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>694</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.82479999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>695</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0.79220000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>696</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.76119999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>697</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.72670000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>698</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>699</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0.66239999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>700</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.63239999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>701</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.60340000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>702</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.57440000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>703</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.5474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>704</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.52059999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>705</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.49580000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>706</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>707</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.44829999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>708</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.42709999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>709</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.40229999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>710</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0.38109999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>711</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>712</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>713</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.3236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>714</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0.30769999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>715</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.29530000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>716</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.28239999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>717</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.27110000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>718</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.26140000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>719</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.25190000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>720</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.24329999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>721</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.23350000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>722</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.22459999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>723</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.2175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>724</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0.20960000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>725</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0.2014</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>726</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>727</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0.18940000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>728</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.1832</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>729</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.1772</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>730</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0.1726</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>731</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>732</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0.1633</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>733</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0.15820000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>734</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0.15429999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>735</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.15190000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>736</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0.14810000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>737</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.14369999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>738</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>739</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.13650000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>740</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0.13389999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>741</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0.13109999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>742</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0.1288</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>743</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0.1258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>744</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0.1226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>745</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0.1193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>746</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0.11650000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>747</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0.1139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>748</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0.1115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>749</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>750</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0.1069</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>751</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0.10390000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>752</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>753</v>
+      </c>
+      <c r="B137" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>754</v>
+      </c>
+      <c r="B138" s="4">
+        <v>9.4899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>755</v>
+      </c>
+      <c r="B139" s="4">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>756</v>
+      </c>
+      <c r="B140" s="4">
+        <v>8.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>757</v>
+      </c>
+      <c r="B141" s="4">
+        <v>8.6300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>758</v>
+      </c>
+      <c r="B142" s="4">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>759</v>
+      </c>
+      <c r="B143" s="4">
+        <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>760</v>
+      </c>
+      <c r="B144" s="4">
+        <v>7.7899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>761</v>
+      </c>
+      <c r="B145" s="4">
+        <v>7.51E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>762</v>
+      </c>
+      <c r="B146" s="4">
+        <v>7.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>763</v>
+      </c>
+      <c r="B147" s="4">
+        <v>6.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>764</v>
+      </c>
+      <c r="B148" s="4">
+        <v>6.6600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>765</v>
+      </c>
+      <c r="B149" s="4">
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>766</v>
+      </c>
+      <c r="B150" s="4">
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>767</v>
+      </c>
+      <c r="B151" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>768</v>
+      </c>
+      <c r="B152" s="4">
+        <v>5.4100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>769</v>
+      </c>
+      <c r="B153" s="4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>770</v>
+      </c>
+      <c r="B154" s="4">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>771</v>
+      </c>
+      <c r="B155" s="4">
+        <v>4.6600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>772</v>
+      </c>
+      <c r="B156" s="4">
+        <v>4.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>773</v>
+      </c>
+      <c r="B157" s="4">
+        <v>4.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>774</v>
+      </c>
+      <c r="B158" s="4">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>775</v>
+      </c>
+      <c r="B159" s="4">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>776</v>
+      </c>
+      <c r="B160" s="4">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>777</v>
+      </c>
+      <c r="B161" s="4">
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>778</v>
+      </c>
+      <c r="B162" s="4">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>779</v>
+      </c>
+      <c r="B163" s="4">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>780</v>
+      </c>
+      <c r="B164" s="4">
+        <v>2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>781</v>
+      </c>
+      <c r="B165" s="4">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>782</v>
+      </c>
+      <c r="B166" s="4">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>783</v>
+      </c>
+      <c r="B167" s="4">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>784</v>
+      </c>
+      <c r="B168" s="4">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>785</v>
+      </c>
+      <c r="B169" s="4">
+        <v>2.46E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>786</v>
+      </c>
+      <c r="B170" s="4">
+        <v>2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>787</v>
+      </c>
+      <c r="B171" s="4">
+        <v>2.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>788</v>
+      </c>
+      <c r="B172" s="4">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>789</v>
+      </c>
+      <c r="B173" s="4">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>790</v>
+      </c>
+      <c r="B174" s="4">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>791</v>
+      </c>
+      <c r="B175" s="4">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>792</v>
+      </c>
+      <c r="B176" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>793</v>
+      </c>
+      <c r="B177" s="4">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>794</v>
+      </c>
+      <c r="B178" s="4">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>795</v>
+      </c>
+      <c r="B179" s="4">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>796</v>
+      </c>
+      <c r="B180" s="4">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>797</v>
+      </c>
+      <c r="B181" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>798</v>
+      </c>
+      <c r="B182" s="4">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>799</v>
+      </c>
+      <c r="B183" s="4">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>800</v>
+      </c>
+      <c r="B184" s="4">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>801</v>
+      </c>
+      <c r="B185" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>802</v>
+      </c>
+      <c r="B186" s="4">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>803</v>
+      </c>
+      <c r="B187" s="4">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>804</v>
+      </c>
+      <c r="B188" s="4">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>805</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>806</v>
+      </c>
+      <c r="B190" s="4">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>807</v>
+      </c>
+      <c r="B191" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>808</v>
+      </c>
+      <c r="B192" s="4">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>809</v>
+      </c>
+      <c r="B193" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>810</v>
+      </c>
+      <c r="B194" s="4">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>811</v>
+      </c>
+      <c r="B195" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>812</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>813</v>
+      </c>
+      <c r="B197" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>814</v>
+      </c>
+      <c r="B198" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>815</v>
+      </c>
+      <c r="B199" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>816</v>
+      </c>
+      <c r="B200" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>817</v>
+      </c>
+      <c r="B201" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>818</v>
+      </c>
+      <c r="B202" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>819</v>
+      </c>
+      <c r="B203" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>820</v>
+      </c>
+      <c r="B204" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>821</v>
+      </c>
+      <c r="B205" s="4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>822</v>
+      </c>
+      <c r="B206" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>823</v>
+      </c>
+      <c r="B207" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>824</v>
+      </c>
+      <c r="B208" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>825</v>
+      </c>
+      <c r="B209" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>826</v>
+      </c>
+      <c r="B210" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>827</v>
+      </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>828</v>
+      </c>
+      <c r="B212" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32477F66-584D-D84A-8FC8-0A6363CB75B7}">
+  <dimension ref="A1:B212"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>618</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>619</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>620</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>621</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>622</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>623</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>624</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>625</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>626</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>627</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>628</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>629</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>630</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>631</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>632</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>633</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>634</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>635</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>636</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>637</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>638</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>639</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>640</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>641</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>642</v>
+      </c>
+      <c r="B26" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>643</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>644</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>645</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>646</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>647</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>648</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>649</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>650</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2.4899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>651</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>652</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>653</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2.92E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>654</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>655</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>656</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>657</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4.0599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>658</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>659</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>660</v>
+      </c>
+      <c r="B44" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>661</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>662</v>
+      </c>
+      <c r="B46" s="4">
+        <v>7.0800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>663</v>
+      </c>
+      <c r="B47" s="4">
+        <v>8.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>664</v>
+      </c>
+      <c r="B48" s="4">
+        <v>9.3799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>665</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.1067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>666</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>667</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.13569999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>668</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.15340000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>669</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.1714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>670</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.1913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>671</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.21260000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>672</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.23949999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>673</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.26469999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>674</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.29320000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>675</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.32090000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>676</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.35020000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>677</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.37809999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>678</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.41610000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>679</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.45619999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>680</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.50090000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>681</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.54010000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>682</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.58279999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>683</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.62680000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>684</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.66810000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>685</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.71050000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>686</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>687</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.78380000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>688</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.82130000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>689</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.85440000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>690</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.88270000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>691</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.90980000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>692</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.93259999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>693</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.95330000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>694</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.96630000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>695</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0.97940000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>696</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.99019999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>697</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.99509999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>698</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>699</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0.99570000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>700</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.98970000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>701</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.98260000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>702</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.96960000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>703</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.95440000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>704</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.93640000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>705</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.91469999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>706</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.8952</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>707</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.87129999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>708</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.84570000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>709</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.82069999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>710</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0.79090000000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>711</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.76319999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>712</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0.73380000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>713</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.7056</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>714</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0.67569999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>715</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.64580000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>716</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.61270000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>717</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.58120000000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>718</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.55130000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>719</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.52259999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>720</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.49249999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>721</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.46510000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>722</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.44009999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>723</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>724</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0.39729999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>725</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0.37709999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>726</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0.35709999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>727</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0.33989999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>728</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.32169999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>729</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>730</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0.2888</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>731</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0.27450000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>732</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0.26140000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>733</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0.24809999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>734</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0.2351</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>735</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.22439999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>736</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0.21429999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>737</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.20480000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>738</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.19489999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>739</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>740</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0.18090000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>741</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>742</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>743</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0.1615</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>744</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0.15540000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>745</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0.15049999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>746</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0.1462</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>747</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>748</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>749</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.1336</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>750</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0.12970000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>751</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0.1258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>752</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0.1246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>753</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>754</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0.1187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>755</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0.1166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>756</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0.11409999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>757</v>
+      </c>
+      <c r="B141" s="4">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>758</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0.1094</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>759</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0.1071</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>760</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>761</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>762</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>763</v>
+      </c>
+      <c r="B147" s="4">
+        <v>9.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>764</v>
+      </c>
+      <c r="B148" s="4">
+        <v>9.69E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>765</v>
+      </c>
+      <c r="B149" s="4">
+        <v>9.4700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>766</v>
+      </c>
+      <c r="B150" s="4">
+        <v>9.1399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>767</v>
+      </c>
+      <c r="B151" s="4">
+        <v>8.8900000000000007E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>768</v>
+      </c>
+      <c r="B152" s="4">
+        <v>8.7099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>769</v>
+      </c>
+      <c r="B153" s="4">
+        <v>8.3500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>770</v>
+      </c>
+      <c r="B154" s="4">
+        <v>8.14E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>771</v>
+      </c>
+      <c r="B155" s="4">
+        <v>7.85E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>772</v>
+      </c>
+      <c r="B156" s="4">
+        <v>7.5399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>773</v>
+      </c>
+      <c r="B157" s="4">
+        <v>7.3300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>774</v>
+      </c>
+      <c r="B158" s="4">
+        <v>7.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>775</v>
+      </c>
+      <c r="B159" s="4">
+        <v>6.8199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>776</v>
+      </c>
+      <c r="B160" s="4">
+        <v>6.4699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>777</v>
+      </c>
+      <c r="B161" s="4">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>778</v>
+      </c>
+      <c r="B162" s="4">
+        <v>6.08E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>779</v>
+      </c>
+      <c r="B163" s="4">
+        <v>5.8099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>780</v>
+      </c>
+      <c r="B164" s="4">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>781</v>
+      </c>
+      <c r="B165" s="4">
+        <v>5.4100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>782</v>
+      </c>
+      <c r="B166" s="4">
+        <v>5.2200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>783</v>
+      </c>
+      <c r="B167" s="4">
+        <v>5.0500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>784</v>
+      </c>
+      <c r="B168" s="4">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>785</v>
+      </c>
+      <c r="B169" s="4">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>786</v>
+      </c>
+      <c r="B170" s="4">
+        <v>4.7399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>787</v>
+      </c>
+      <c r="B171" s="4">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>788</v>
+      </c>
+      <c r="B172" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>789</v>
+      </c>
+      <c r="B173" s="4">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>790</v>
+      </c>
+      <c r="B174" s="4">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>791</v>
+      </c>
+      <c r="B175" s="4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>792</v>
+      </c>
+      <c r="B176" s="4">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>793</v>
+      </c>
+      <c r="B177" s="4">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>794</v>
+      </c>
+      <c r="B178" s="4">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>795</v>
+      </c>
+      <c r="B179" s="4">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>796</v>
+      </c>
+      <c r="B180" s="4">
+        <v>3.7900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>797</v>
+      </c>
+      <c r="B181" s="4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>798</v>
+      </c>
+      <c r="B182" s="4">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>799</v>
+      </c>
+      <c r="B183" s="4">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>800</v>
+      </c>
+      <c r="B184" s="4">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>801</v>
+      </c>
+      <c r="B185" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>802</v>
+      </c>
+      <c r="B186" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>803</v>
+      </c>
+      <c r="B187" s="4">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>804</v>
+      </c>
+      <c r="B188" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>805</v>
+      </c>
+      <c r="B189" s="4">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>806</v>
+      </c>
+      <c r="B190" s="4">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>807</v>
+      </c>
+      <c r="B191" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>808</v>
+      </c>
+      <c r="B192" s="4">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>809</v>
+      </c>
+      <c r="B193" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>810</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>811</v>
+      </c>
+      <c r="B195" s="4">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>812</v>
+      </c>
+      <c r="B196" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>813</v>
+      </c>
+      <c r="B197" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>814</v>
+      </c>
+      <c r="B198" s="4">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>815</v>
+      </c>
+      <c r="B199" s="4">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>816</v>
+      </c>
+      <c r="B200" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>817</v>
+      </c>
+      <c r="B201" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>818</v>
+      </c>
+      <c r="B202" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>819</v>
+      </c>
+      <c r="B203" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>820</v>
+      </c>
+      <c r="B204" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>821</v>
+      </c>
+      <c r="B205" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>822</v>
+      </c>
+      <c r="B206" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>823</v>
+      </c>
+      <c r="B207" s="4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>824</v>
+      </c>
+      <c r="B208" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>825</v>
+      </c>
+      <c r="B209" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>826</v>
+      </c>
+      <c r="B210" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>827</v>
+      </c>
+      <c r="B211" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>828</v>
+      </c>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>